--- a/Challenge2/Submission Sheet- Innovation Track (1).xlsx
+++ b/Challenge2/Submission Sheet- Innovation Track (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\hackathon\ondc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77E9B9E-DDD9-4641-92B4-232BF6C027B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0A14A-E782-4D53-8428-86121A2D9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>a. Free to use</t>
-  </si>
-  <si>
     <t xml:space="preserve">a. A well tuned voice recognition system is a useful tool all areas. We intened to use it for our webWhatsapp messaging, rule engines to define rules and mainly at places where textual input is difficult to get. </t>
   </si>
   <si>
@@ -203,6 +200,9 @@
 d. Save once sufficient information is collected click on save.
 e. check https://ondc.rahainnovations.com/sandbox/innovation/catalogue to see newly added entries</t>
     </r>
+  </si>
+  <si>
+    <t>a. Open to use</t>
   </si>
 </sst>
 </file>
@@ -609,28 +609,28 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,8 +898,8 @@
   </sheetPr>
   <dimension ref="A1:AG1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -916,22 +916,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1199,13 +1199,13 @@
       <c r="AG7" s="24"/>
     </row>
     <row r="8" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+      <c r="A8" s="33">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="38" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="25">
@@ -1215,14 +1215,14 @@
         <v>19</v>
       </c>
       <c r="F8" s="26"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -1357,13 +1357,13 @@
       <c r="AG11" s="18"/>
     </row>
     <row r="12" spans="1:33" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="36">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="25">
@@ -1375,29 +1375,29 @@
       <c r="F12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="33" t="s">
+      <c r="N12" s="38" t="s">
         <v>36</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>37</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
@@ -1537,13 +1537,13 @@
       <c r="AG15" s="18"/>
     </row>
     <row r="16" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="36">
+      <c r="A16" s="33">
         <v>3</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="25">
@@ -1553,14 +1553,14 @@
         <v>19</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
@@ -1773,13 +1773,13 @@
       <c r="AG21" s="18"/>
     </row>
     <row r="22" spans="1:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36">
+      <c r="A22" s="33">
         <v>4</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="25">
@@ -1789,14 +1789,14 @@
         <v>19</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -1931,13 +1931,13 @@
       <c r="AG25" s="18"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="33">
         <v>5</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="25">
@@ -1947,14 +1947,14 @@
         <v>19</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -2206,13 +2206,13 @@
       <c r="AG32" s="18"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="36">
+      <c r="A33" s="33">
         <v>6</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D33" s="25">
@@ -2222,14 +2222,14 @@
         <v>19</v>
       </c>
       <c r="F33" s="29"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -36144,11 +36144,56 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="M26:M30"/>
+    <mergeCell ref="N26:N30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="I26:I30"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="J33:J36"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="K16:K20"/>
     <mergeCell ref="L16:L20"/>
@@ -36161,56 +36206,11 @@
     <mergeCell ref="L12:L14"/>
     <mergeCell ref="M12:M14"/>
     <mergeCell ref="N12:N14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="N33:N36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="J33:J36"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="N26:N30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="I26:I30"/>
-    <mergeCell ref="J26:J30"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="H16:H20"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E1001">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/Challenge2/Submission Sheet- Innovation Track (1).xlsx
+++ b/Challenge2/Submission Sheet- Innovation Track (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\hackathon\ondc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB0A14A-E782-4D53-8428-86121A2D9B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BEC35B-C9E4-40D5-8A11-76B1008573EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,8 +172,12 @@
 c. https://ondc.rahainnovations.com/sandbox/innovation/catalogue shows the uploaded catalogue</t>
   </si>
   <si>
+    <t>a. Open to use</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">
+* Check "submission links.pdf" in the repo
 Video link </t>
     </r>
     <r>
@@ -194,15 +198,53 @@
       </rPr>
       <t xml:space="preserve">
 Demo live app usage
-a. click https://ondc.rahainnovations.com/sandbox/innovation/prompt_speech from mobile
+a. click 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://ondc.rahainnovations.com/sandbox/innovation/prompt_speech </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+      </rPr>
+      <t xml:space="preserve">
+from mobile
 b. Click on add Image to take pic/upload image.
 c. Click on input field and speak after beep
 d. Save once sufficient information is collected click on save.
-e. check https://ondc.rahainnovations.com/sandbox/innovation/catalogue to see newly added entries</t>
+e. check 
+</t>
     </r>
-  </si>
-  <si>
-    <t>a. Open to use</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://ondc.rahainnovations.com/sandbox/innovation/catalogue 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Lato"/>
+        <family val="2"/>
+      </rPr>
+      <t>to see newly added entries</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -898,7 +940,7 @@
   </sheetPr>
   <dimension ref="A1:AG1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H12" sqref="H12:H14"/>
     </sheetView>
   </sheetViews>
@@ -908,7 +950,7 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="7" max="7" width="68.140625" customWidth="1"/>
-    <col min="8" max="8" width="47.140625" customWidth="1"/>
+    <col min="8" max="8" width="63.85546875" customWidth="1"/>
     <col min="9" max="9" width="45.140625" customWidth="1"/>
     <col min="10" max="11" width="17.28515625" customWidth="1"/>
     <col min="12" max="12" width="35.140625" customWidth="1"/>
@@ -1379,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="38" t="s">
         <v>38</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="38" t="s">
         <v>33</v>
@@ -1460,7 +1502,7 @@
       <c r="AF13" s="18"/>
       <c r="AG13" s="18"/>
     </row>
-    <row r="14" spans="1:33" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="347.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
